--- a/storage/app/dataset.xlsx
+++ b/storage/app/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\e gov\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Dapodik Kab. Banjar\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE86E6-CD8E-4AB7-976A-0D07A8919A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B91A4B-C6D8-4352-B761-6A66BDB636F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="498">
   <si>
     <t>No</t>
   </si>
@@ -562,15 +562,9 @@
     <t>13 Oct 2024 11:23:32</t>
   </si>
   <si>
-    <t>Semester</t>
-  </si>
-  <si>
     <t>Kecamatan</t>
   </si>
   <si>
-    <t>2024/2025 Genap</t>
-  </si>
-  <si>
     <t>Karang Intan</t>
   </si>
   <si>
@@ -1517,6 +1511,9 @@
   </si>
   <si>
     <t>Banjar</t>
+  </si>
+  <si>
+    <t>Tahun</t>
   </si>
 </sst>
 </file>
@@ -1876,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80:P231"/>
+    <sheetView tabSelected="1" topLeftCell="B211" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1944,10 +1941,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1993,11 +1990,11 @@
       <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>182</v>
+      <c r="O2">
+        <v>2025</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2043,11 +2040,11 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>182</v>
+      <c r="O3" s="3">
+        <v>2025</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2093,11 +2090,11 @@
       <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
-        <v>182</v>
+      <c r="O4" s="3">
+        <v>2025</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2143,11 +2140,11 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
-        <v>182</v>
+      <c r="O5" s="3">
+        <v>2025</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2193,11 +2190,11 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
-        <v>182</v>
+      <c r="O6" s="3">
+        <v>2025</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2243,11 +2240,11 @@
       <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>182</v>
+      <c r="O7" s="3">
+        <v>2025</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2293,11 +2290,11 @@
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
-        <v>182</v>
+      <c r="O8" s="3">
+        <v>2025</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2343,11 +2340,11 @@
       <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
-        <v>182</v>
+      <c r="O9" s="3">
+        <v>2025</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2393,11 +2390,11 @@
       <c r="N10" s="2">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
-        <v>182</v>
+      <c r="O10" s="3">
+        <v>2025</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2443,11 +2440,11 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
-        <v>182</v>
+      <c r="O11" s="3">
+        <v>2025</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2493,11 +2490,11 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
-        <v>182</v>
+      <c r="O12" s="3">
+        <v>2025</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2543,11 +2540,11 @@
       <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
-        <v>182</v>
+      <c r="O13" s="3">
+        <v>2025</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2593,11 +2590,11 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
-        <v>182</v>
+      <c r="O14" s="3">
+        <v>2025</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2643,11 +2640,11 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
-        <v>182</v>
+      <c r="O15" s="3">
+        <v>2025</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2693,11 +2690,11 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
-        <v>182</v>
+      <c r="O16" s="3">
+        <v>2025</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2743,11 +2740,11 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
-        <v>182</v>
+      <c r="O17" s="3">
+        <v>2025</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2793,11 +2790,11 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" t="s">
-        <v>182</v>
+      <c r="O18" s="3">
+        <v>2025</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2843,11 +2840,11 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
-        <v>182</v>
+      <c r="O19" s="3">
+        <v>2025</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2893,11 +2890,11 @@
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
-        <v>182</v>
+      <c r="O20" s="3">
+        <v>2025</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2943,11 +2940,11 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
-        <v>182</v>
+      <c r="O21" s="3">
+        <v>2025</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2993,11 +2990,11 @@
       <c r="N22" s="2">
         <v>1</v>
       </c>
-      <c r="O22" t="s">
-        <v>182</v>
+      <c r="O22" s="3">
+        <v>2025</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3043,11 +3040,11 @@
       <c r="N23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" t="s">
-        <v>182</v>
+      <c r="O23" s="3">
+        <v>2025</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3093,11 +3090,11 @@
       <c r="N24" s="2">
         <v>0</v>
       </c>
-      <c r="O24" t="s">
-        <v>182</v>
+      <c r="O24" s="3">
+        <v>2025</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3143,11 +3140,11 @@
       <c r="N25" s="2">
         <v>0</v>
       </c>
-      <c r="O25" t="s">
-        <v>182</v>
+      <c r="O25" s="3">
+        <v>2025</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3193,11 +3190,11 @@
       <c r="N26" s="2">
         <v>0</v>
       </c>
-      <c r="O26" t="s">
-        <v>182</v>
+      <c r="O26" s="3">
+        <v>2025</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3243,11 +3240,11 @@
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" t="s">
-        <v>182</v>
+      <c r="O27" s="3">
+        <v>2025</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3293,11 +3290,11 @@
       <c r="N28" s="2">
         <v>0</v>
       </c>
-      <c r="O28" t="s">
-        <v>182</v>
+      <c r="O28" s="3">
+        <v>2025</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3343,11 +3340,11 @@
       <c r="N29" s="2">
         <v>0</v>
       </c>
-      <c r="O29" t="s">
-        <v>182</v>
+      <c r="O29" s="3">
+        <v>2025</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3393,11 +3390,11 @@
       <c r="N30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" t="s">
-        <v>182</v>
+      <c r="O30" s="3">
+        <v>2025</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3443,11 +3440,11 @@
       <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" t="s">
-        <v>182</v>
+      <c r="O31" s="3">
+        <v>2025</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3493,11 +3490,11 @@
       <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="O32" t="s">
-        <v>182</v>
+      <c r="O32" s="3">
+        <v>2025</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3543,11 +3540,11 @@
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" t="s">
-        <v>182</v>
+      <c r="O33" s="3">
+        <v>2025</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3593,11 +3590,11 @@
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" t="s">
-        <v>182</v>
+      <c r="O34" s="3">
+        <v>2025</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3643,11 +3640,11 @@
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" t="s">
-        <v>182</v>
+      <c r="O35" s="3">
+        <v>2025</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3693,11 +3690,11 @@
       <c r="N36" s="2">
         <v>0</v>
       </c>
-      <c r="O36" t="s">
-        <v>182</v>
+      <c r="O36" s="3">
+        <v>2025</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3743,11 +3740,11 @@
       <c r="N37" s="2">
         <v>0</v>
       </c>
-      <c r="O37" t="s">
-        <v>182</v>
+      <c r="O37" s="3">
+        <v>2025</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3793,11 +3790,11 @@
       <c r="N38" s="2">
         <v>0</v>
       </c>
-      <c r="O38" t="s">
-        <v>182</v>
+      <c r="O38" s="3">
+        <v>2025</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3843,11 +3840,11 @@
       <c r="N39" s="2">
         <v>1</v>
       </c>
-      <c r="O39" t="s">
-        <v>182</v>
+      <c r="O39" s="3">
+        <v>2025</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3893,11 +3890,11 @@
       <c r="N40" s="2">
         <v>1</v>
       </c>
-      <c r="O40" t="s">
-        <v>182</v>
+      <c r="O40" s="3">
+        <v>2025</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3943,11 +3940,11 @@
       <c r="N41" s="2">
         <v>1</v>
       </c>
-      <c r="O41" t="s">
-        <v>182</v>
+      <c r="O41" s="3">
+        <v>2025</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3993,11 +3990,11 @@
       <c r="N42" s="2">
         <v>1</v>
       </c>
-      <c r="O42" t="s">
-        <v>182</v>
+      <c r="O42" s="3">
+        <v>2025</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4043,11 +4040,11 @@
       <c r="N43" s="2">
         <v>1</v>
       </c>
-      <c r="O43" t="s">
-        <v>182</v>
+      <c r="O43" s="3">
+        <v>2025</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4093,11 +4090,11 @@
       <c r="N44" s="2">
         <v>1</v>
       </c>
-      <c r="O44" t="s">
-        <v>182</v>
+      <c r="O44" s="3">
+        <v>2025</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -4143,11 +4140,11 @@
       <c r="N45" s="2">
         <v>1</v>
       </c>
-      <c r="O45" t="s">
-        <v>182</v>
+      <c r="O45" s="3">
+        <v>2025</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4193,11 +4190,11 @@
       <c r="N46" s="2">
         <v>1</v>
       </c>
-      <c r="O46" t="s">
-        <v>182</v>
+      <c r="O46" s="3">
+        <v>2025</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4243,11 +4240,11 @@
       <c r="N47" s="2">
         <v>1</v>
       </c>
-      <c r="O47" t="s">
-        <v>182</v>
+      <c r="O47" s="3">
+        <v>2025</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4293,11 +4290,11 @@
       <c r="N48" s="2">
         <v>1</v>
       </c>
-      <c r="O48" t="s">
-        <v>182</v>
+      <c r="O48" s="3">
+        <v>2025</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4343,11 +4340,11 @@
       <c r="N49" s="2">
         <v>0</v>
       </c>
-      <c r="O49" t="s">
-        <v>182</v>
+      <c r="O49" s="3">
+        <v>2025</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4393,11 +4390,11 @@
       <c r="N50" s="2">
         <v>1</v>
       </c>
-      <c r="O50" t="s">
-        <v>182</v>
+      <c r="O50" s="3">
+        <v>2025</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4443,11 +4440,11 @@
       <c r="N51" s="2">
         <v>1</v>
       </c>
-      <c r="O51" t="s">
-        <v>182</v>
+      <c r="O51" s="3">
+        <v>2025</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4493,11 +4490,11 @@
       <c r="N52" s="2">
         <v>0</v>
       </c>
-      <c r="O52" t="s">
-        <v>182</v>
+      <c r="O52" s="3">
+        <v>2025</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4543,11 +4540,11 @@
       <c r="N53" s="2">
         <v>1</v>
       </c>
-      <c r="O53" t="s">
-        <v>182</v>
+      <c r="O53" s="3">
+        <v>2025</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4593,11 +4590,11 @@
       <c r="N54" s="2">
         <v>0</v>
       </c>
-      <c r="O54" t="s">
-        <v>182</v>
+      <c r="O54" s="3">
+        <v>2025</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4643,11 +4640,11 @@
       <c r="N55" s="2">
         <v>1</v>
       </c>
-      <c r="O55" t="s">
-        <v>182</v>
+      <c r="O55" s="3">
+        <v>2025</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4693,11 +4690,11 @@
       <c r="N56" s="2">
         <v>1</v>
       </c>
-      <c r="O56" t="s">
-        <v>182</v>
+      <c r="O56" s="3">
+        <v>2025</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4743,11 +4740,11 @@
       <c r="N57" s="2">
         <v>0</v>
       </c>
-      <c r="O57" t="s">
-        <v>182</v>
+      <c r="O57" s="3">
+        <v>2025</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4793,11 +4790,11 @@
       <c r="N58" s="2">
         <v>1</v>
       </c>
-      <c r="O58" t="s">
-        <v>182</v>
+      <c r="O58" s="3">
+        <v>2025</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4843,11 +4840,11 @@
       <c r="N59" s="2">
         <v>1</v>
       </c>
-      <c r="O59" t="s">
-        <v>182</v>
+      <c r="O59" s="3">
+        <v>2025</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4893,11 +4890,11 @@
       <c r="N60" s="2">
         <v>1</v>
       </c>
-      <c r="O60" t="s">
-        <v>182</v>
+      <c r="O60" s="3">
+        <v>2025</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4943,11 +4940,11 @@
       <c r="N61" s="2">
         <v>1</v>
       </c>
-      <c r="O61" t="s">
-        <v>182</v>
+      <c r="O61" s="3">
+        <v>2025</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4993,11 +4990,11 @@
       <c r="N62" s="2">
         <v>1</v>
       </c>
-      <c r="O62" t="s">
-        <v>182</v>
+      <c r="O62" s="3">
+        <v>2025</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5043,11 +5040,11 @@
       <c r="N63" s="2">
         <v>0</v>
       </c>
-      <c r="O63" t="s">
-        <v>182</v>
+      <c r="O63" s="3">
+        <v>2025</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5093,11 +5090,11 @@
       <c r="N64" s="2">
         <v>1</v>
       </c>
-      <c r="O64" t="s">
-        <v>182</v>
+      <c r="O64" s="3">
+        <v>2025</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5143,11 +5140,11 @@
       <c r="N65" s="2">
         <v>1</v>
       </c>
-      <c r="O65" t="s">
-        <v>182</v>
+      <c r="O65" s="3">
+        <v>2025</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5193,11 +5190,11 @@
       <c r="N66" s="2">
         <v>1</v>
       </c>
-      <c r="O66" t="s">
-        <v>182</v>
+      <c r="O66" s="3">
+        <v>2025</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5243,11 +5240,11 @@
       <c r="N67" s="2">
         <v>1</v>
       </c>
-      <c r="O67" t="s">
-        <v>182</v>
+      <c r="O67" s="3">
+        <v>2025</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5293,11 +5290,11 @@
       <c r="N68" s="2">
         <v>1</v>
       </c>
-      <c r="O68" t="s">
-        <v>182</v>
+      <c r="O68" s="3">
+        <v>2025</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5343,11 +5340,11 @@
       <c r="N69" s="2">
         <v>1</v>
       </c>
-      <c r="O69" t="s">
-        <v>182</v>
+      <c r="O69" s="3">
+        <v>2025</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5393,11 +5390,11 @@
       <c r="N70" s="2">
         <v>1</v>
       </c>
-      <c r="O70" t="s">
-        <v>182</v>
+      <c r="O70" s="3">
+        <v>2025</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5443,11 +5440,11 @@
       <c r="N71" s="2">
         <v>1</v>
       </c>
-      <c r="O71" t="s">
-        <v>182</v>
+      <c r="O71" s="3">
+        <v>2025</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5493,11 +5490,11 @@
       <c r="N72" s="2">
         <v>1</v>
       </c>
-      <c r="O72" t="s">
-        <v>182</v>
+      <c r="O72" s="3">
+        <v>2025</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5543,11 +5540,11 @@
       <c r="N73" s="2">
         <v>1</v>
       </c>
-      <c r="O73" t="s">
-        <v>182</v>
+      <c r="O73" s="3">
+        <v>2025</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5593,11 +5590,11 @@
       <c r="N74" s="2">
         <v>1</v>
       </c>
-      <c r="O74" t="s">
-        <v>182</v>
+      <c r="O74" s="3">
+        <v>2025</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5643,11 +5640,11 @@
       <c r="N75" s="2">
         <v>1</v>
       </c>
-      <c r="O75" t="s">
-        <v>182</v>
+      <c r="O75" s="3">
+        <v>2025</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5693,11 +5690,11 @@
       <c r="N76" s="2">
         <v>0</v>
       </c>
-      <c r="O76" t="s">
-        <v>182</v>
+      <c r="O76" s="3">
+        <v>2025</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5743,11 +5740,11 @@
       <c r="N77" s="2">
         <v>0</v>
       </c>
-      <c r="O77" t="s">
-        <v>182</v>
+      <c r="O77" s="3">
+        <v>2025</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5793,11 +5790,11 @@
       <c r="N78" s="2">
         <v>1</v>
       </c>
-      <c r="O78" t="s">
-        <v>182</v>
+      <c r="O78" s="3">
+        <v>2025</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5843,11 +5840,11 @@
       <c r="N79" s="2">
         <v>0</v>
       </c>
-      <c r="O79" t="s">
-        <v>182</v>
+      <c r="O79" s="3">
+        <v>2025</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5855,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C80" s="4">
         <v>69760306</v>
@@ -5867,7 +5864,7 @@
         <v>91</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G80" s="4">
         <v>6</v>
@@ -5893,11 +5890,11 @@
       <c r="N80" s="4">
         <v>0</v>
       </c>
-      <c r="O80" s="3" t="s">
-        <v>182</v>
+      <c r="O80" s="3">
+        <v>2025</v>
       </c>
       <c r="P80" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5905,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C81" s="4">
         <v>69760303</v>
@@ -5917,7 +5914,7 @@
         <v>91</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G81" s="4">
         <v>2</v>
@@ -5943,11 +5940,11 @@
       <c r="N81" s="4">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>182</v>
+      <c r="O81" s="3">
+        <v>2025</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5955,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C82" s="4">
         <v>30314227</v>
@@ -5967,7 +5964,7 @@
         <v>91</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G82" s="4">
         <v>5</v>
@@ -5993,11 +5990,11 @@
       <c r="N82" s="4">
         <v>0</v>
       </c>
-      <c r="O82" s="3" t="s">
-        <v>182</v>
+      <c r="O82" s="3">
+        <v>2025</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6005,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C83" s="4">
         <v>69975876</v>
@@ -6017,7 +6014,7 @@
         <v>91</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G83" s="4">
         <v>2</v>
@@ -6043,11 +6040,11 @@
       <c r="N83" s="4">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>182</v>
+      <c r="O83" s="3">
+        <v>2025</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6055,7 +6052,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C84" s="4">
         <v>69760310</v>
@@ -6067,7 +6064,7 @@
         <v>91</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G84" s="4">
         <v>5</v>
@@ -6093,11 +6090,11 @@
       <c r="N84" s="4">
         <v>1</v>
       </c>
-      <c r="O84" s="3" t="s">
-        <v>182</v>
+      <c r="O84" s="3">
+        <v>2025</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6105,7 +6102,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C85" s="4">
         <v>69760301</v>
@@ -6117,7 +6114,7 @@
         <v>91</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G85" s="4">
         <v>2</v>
@@ -6143,11 +6140,11 @@
       <c r="N85" s="4">
         <v>0</v>
       </c>
-      <c r="O85" s="3" t="s">
-        <v>182</v>
+      <c r="O85" s="3">
+        <v>2025</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6155,7 +6152,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C86" s="4">
         <v>30314310</v>
@@ -6167,7 +6164,7 @@
         <v>91</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G86" s="4">
         <v>4</v>
@@ -6193,11 +6190,11 @@
       <c r="N86" s="4">
         <v>1</v>
       </c>
-      <c r="O86" s="3" t="s">
-        <v>182</v>
+      <c r="O86" s="3">
+        <v>2025</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6205,7 +6202,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C87" s="4">
         <v>69760298</v>
@@ -6217,7 +6214,7 @@
         <v>91</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G87" s="4">
         <v>5</v>
@@ -6243,11 +6240,11 @@
       <c r="N87" s="4">
         <v>0</v>
       </c>
-      <c r="O87" s="3" t="s">
-        <v>182</v>
+      <c r="O87" s="3">
+        <v>2025</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6255,7 +6252,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C88" s="4">
         <v>60726615</v>
@@ -6267,7 +6264,7 @@
         <v>16</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G88" s="4">
         <v>3</v>
@@ -6293,11 +6290,11 @@
       <c r="N88" s="4">
         <v>0</v>
       </c>
-      <c r="O88" s="3" t="s">
-        <v>182</v>
+      <c r="O88" s="3">
+        <v>2025</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6305,7 +6302,7 @@
         <v>10</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C89" s="4">
         <v>30314264</v>
@@ -6317,7 +6314,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G89" s="4">
         <v>1</v>
@@ -6343,11 +6340,11 @@
       <c r="N89" s="4">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>182</v>
+      <c r="O89" s="3">
+        <v>2025</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6355,7 +6352,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C90" s="4">
         <v>69760300</v>
@@ -6367,7 +6364,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G90" s="4">
         <v>3</v>
@@ -6393,11 +6390,11 @@
       <c r="N90" s="4">
         <v>0</v>
       </c>
-      <c r="O90" s="3" t="s">
-        <v>182</v>
+      <c r="O90" s="3">
+        <v>2025</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6405,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C91" s="4">
         <v>69955495</v>
@@ -6417,7 +6414,7 @@
         <v>16</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G91" s="4">
         <v>2</v>
@@ -6443,11 +6440,11 @@
       <c r="N91" s="4">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>182</v>
+      <c r="O91" s="3">
+        <v>2025</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6455,7 +6452,7 @@
         <v>13</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C92" s="4">
         <v>30314283</v>
@@ -6467,7 +6464,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G92" s="4">
         <v>3</v>
@@ -6493,11 +6490,11 @@
       <c r="N92" s="4">
         <v>1</v>
       </c>
-      <c r="O92" s="3" t="s">
-        <v>182</v>
+      <c r="O92" s="3">
+        <v>2025</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6505,7 +6502,7 @@
         <v>14</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C93" s="4">
         <v>30314309</v>
@@ -6517,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
@@ -6543,11 +6540,11 @@
       <c r="N93" s="4">
         <v>0</v>
       </c>
-      <c r="O93" s="3" t="s">
-        <v>182</v>
+      <c r="O93" s="3">
+        <v>2025</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6555,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C94" s="4">
         <v>69760308</v>
@@ -6567,7 +6564,7 @@
         <v>16</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
@@ -6593,11 +6590,11 @@
       <c r="N94" s="4">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>182</v>
+      <c r="O94" s="3">
+        <v>2025</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6605,7 +6602,7 @@
         <v>16</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C95" s="4">
         <v>30314320</v>
@@ -6617,7 +6614,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G95" s="4">
         <v>1</v>
@@ -6643,11 +6640,11 @@
       <c r="N95" s="4">
         <v>0</v>
       </c>
-      <c r="O95" s="3" t="s">
-        <v>182</v>
+      <c r="O95" s="3">
+        <v>2025</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6655,7 +6652,7 @@
         <v>17</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C96" s="4">
         <v>69904569</v>
@@ -6667,7 +6664,7 @@
         <v>16</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
@@ -6693,11 +6690,11 @@
       <c r="N96" s="4">
         <v>0</v>
       </c>
-      <c r="O96" s="3" t="s">
-        <v>182</v>
+      <c r="O96" s="3">
+        <v>2025</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6705,7 +6702,7 @@
         <v>18</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C97" s="4">
         <v>30314206</v>
@@ -6717,7 +6714,7 @@
         <v>16</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G97" s="4">
         <v>10</v>
@@ -6743,11 +6740,11 @@
       <c r="N97" s="4">
         <v>0</v>
       </c>
-      <c r="O97" s="3" t="s">
-        <v>182</v>
+      <c r="O97" s="3">
+        <v>2025</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6755,7 +6752,7 @@
         <v>19</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C98" s="4">
         <v>69863511</v>
@@ -6767,7 +6764,7 @@
         <v>16</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G98" s="4">
         <v>1</v>
@@ -6793,11 +6790,11 @@
       <c r="N98" s="4">
         <v>0</v>
       </c>
-      <c r="O98" s="3" t="s">
-        <v>182</v>
+      <c r="O98" s="3">
+        <v>2025</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6805,7 +6802,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C99" s="4">
         <v>69760304</v>
@@ -6817,7 +6814,7 @@
         <v>16</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G99" s="4">
         <v>2</v>
@@ -6843,11 +6840,11 @@
       <c r="N99" s="4">
         <v>0</v>
       </c>
-      <c r="O99" s="3" t="s">
-        <v>182</v>
+      <c r="O99" s="3">
+        <v>2025</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6855,7 +6852,7 @@
         <v>21</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C100" s="4">
         <v>69866420</v>
@@ -6867,7 +6864,7 @@
         <v>16</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G100" s="4">
         <v>1</v>
@@ -6893,11 +6890,11 @@
       <c r="N100" s="4">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>182</v>
+      <c r="O100" s="3">
+        <v>2025</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6905,7 +6902,7 @@
         <v>22</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C101" s="4">
         <v>30314231</v>
@@ -6917,7 +6914,7 @@
         <v>16</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G101" s="4">
         <v>2</v>
@@ -6943,11 +6940,11 @@
       <c r="N101" s="4">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>182</v>
+      <c r="O101" s="3">
+        <v>2025</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6955,7 +6952,7 @@
         <v>23</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C102" s="4">
         <v>30314210</v>
@@ -6967,7 +6964,7 @@
         <v>16</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G102" s="4">
         <v>8</v>
@@ -6993,11 +6990,11 @@
       <c r="N102" s="4">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>182</v>
+      <c r="O102" s="3">
+        <v>2025</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7005,7 +7002,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C103" s="4">
         <v>30314235</v>
@@ -7017,7 +7014,7 @@
         <v>16</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G103" s="4">
         <v>1</v>
@@ -7043,11 +7040,11 @@
       <c r="N103" s="4">
         <v>0</v>
       </c>
-      <c r="O103" s="3" t="s">
-        <v>182</v>
+      <c r="O103" s="3">
+        <v>2025</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7055,7 +7052,7 @@
         <v>25</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C104" s="4">
         <v>30314199</v>
@@ -7067,7 +7064,7 @@
         <v>16</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G104" s="4">
         <v>2</v>
@@ -7093,11 +7090,11 @@
       <c r="N104" s="4">
         <v>0</v>
       </c>
-      <c r="O104" s="3" t="s">
-        <v>182</v>
+      <c r="O104" s="3">
+        <v>2025</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7105,7 +7102,7 @@
         <v>26</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C105" s="4">
         <v>70002739</v>
@@ -7117,7 +7114,7 @@
         <v>16</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G105" s="4">
         <v>8</v>
@@ -7143,11 +7140,11 @@
       <c r="N105" s="4">
         <v>0</v>
       </c>
-      <c r="O105" s="3" t="s">
-        <v>182</v>
+      <c r="O105" s="3">
+        <v>2025</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7155,7 +7152,7 @@
         <v>27</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="4">
         <v>69760305</v>
@@ -7167,7 +7164,7 @@
         <v>16</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G106" s="4">
         <v>6</v>
@@ -7193,11 +7190,11 @@
       <c r="N106" s="4">
         <v>0</v>
       </c>
-      <c r="O106" s="3" t="s">
-        <v>182</v>
+      <c r="O106" s="3">
+        <v>2025</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7205,7 +7202,7 @@
         <v>28</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C107" s="4">
         <v>69863510</v>
@@ -7217,7 +7214,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G107" s="4">
         <v>4</v>
@@ -7243,11 +7240,11 @@
       <c r="N107" s="4">
         <v>0</v>
       </c>
-      <c r="O107" s="3" t="s">
-        <v>182</v>
+      <c r="O107" s="3">
+        <v>2025</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7255,7 +7252,7 @@
         <v>29</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C108" s="4">
         <v>30314293</v>
@@ -7267,7 +7264,7 @@
         <v>16</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G108" s="4">
         <v>5</v>
@@ -7293,11 +7290,11 @@
       <c r="N108" s="4">
         <v>1</v>
       </c>
-      <c r="O108" s="3" t="s">
-        <v>182</v>
+      <c r="O108" s="3">
+        <v>2025</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7305,7 +7302,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C109" s="4">
         <v>70000581</v>
@@ -7317,7 +7314,7 @@
         <v>16</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -7343,11 +7340,11 @@
       <c r="N109" s="4">
         <v>0</v>
       </c>
-      <c r="O109" s="3" t="s">
-        <v>182</v>
+      <c r="O109" s="3">
+        <v>2025</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7355,7 +7352,7 @@
         <v>31</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C110" s="4">
         <v>30314319</v>
@@ -7367,7 +7364,7 @@
         <v>16</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G110" s="4">
         <v>1</v>
@@ -7393,11 +7390,11 @@
       <c r="N110" s="4">
         <v>0</v>
       </c>
-      <c r="O110" s="3" t="s">
-        <v>182</v>
+      <c r="O110" s="3">
+        <v>2025</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7405,7 +7402,7 @@
         <v>32</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C111" s="4">
         <v>70033505</v>
@@ -7417,7 +7414,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G111" s="4">
         <v>2</v>
@@ -7443,11 +7440,11 @@
       <c r="N111" s="4">
         <v>0</v>
       </c>
-      <c r="O111" s="3" t="s">
-        <v>182</v>
+      <c r="O111" s="3">
+        <v>2025</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7455,7 +7452,7 @@
         <v>33</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C112" s="4">
         <v>30314221</v>
@@ -7467,7 +7464,7 @@
         <v>16</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G112" s="4">
         <v>5</v>
@@ -7493,11 +7490,11 @@
       <c r="N112" s="4">
         <v>1</v>
       </c>
-      <c r="O112" s="3" t="s">
-        <v>182</v>
+      <c r="O112" s="3">
+        <v>2025</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7505,7 +7502,7 @@
         <v>34</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C113" s="4">
         <v>69795769</v>
@@ -7517,7 +7514,7 @@
         <v>16</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G113" s="4">
         <v>4</v>
@@ -7543,11 +7540,11 @@
       <c r="N113" s="4">
         <v>0</v>
       </c>
-      <c r="O113" s="3" t="s">
-        <v>182</v>
+      <c r="O113" s="3">
+        <v>2025</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7555,7 +7552,7 @@
         <v>35</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C114" s="4">
         <v>69992482</v>
@@ -7567,7 +7564,7 @@
         <v>16</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G114" s="4">
         <v>0</v>
@@ -7593,11 +7590,11 @@
       <c r="N114" s="4">
         <v>0</v>
       </c>
-      <c r="O114" s="3" t="s">
-        <v>182</v>
+      <c r="O114" s="3">
+        <v>2025</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7605,7 +7602,7 @@
         <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C115" s="4">
         <v>30314255</v>
@@ -7617,7 +7614,7 @@
         <v>16</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G115" s="4">
         <v>2</v>
@@ -7643,11 +7640,11 @@
       <c r="N115" s="4">
         <v>0</v>
       </c>
-      <c r="O115" s="3" t="s">
-        <v>182</v>
+      <c r="O115" s="3">
+        <v>2025</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7655,7 +7652,7 @@
         <v>37</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C116" s="4">
         <v>69812120</v>
@@ -7667,7 +7664,7 @@
         <v>16</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G116" s="4">
         <v>2</v>
@@ -7693,11 +7690,11 @@
       <c r="N116" s="4">
         <v>0</v>
       </c>
-      <c r="O116" s="3" t="s">
-        <v>182</v>
+      <c r="O116" s="3">
+        <v>2025</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7705,7 +7702,7 @@
         <v>38</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C117" s="4">
         <v>69760312</v>
@@ -7717,7 +7714,7 @@
         <v>16</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G117" s="4">
         <v>0</v>
@@ -7743,11 +7740,11 @@
       <c r="N117" s="4">
         <v>0</v>
       </c>
-      <c r="O117" s="3" t="s">
-        <v>182</v>
+      <c r="O117" s="3">
+        <v>2025</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7755,7 +7752,7 @@
         <v>39</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C118" s="4">
         <v>69760311</v>
@@ -7767,7 +7764,7 @@
         <v>16</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G118" s="4">
         <v>3</v>
@@ -7793,11 +7790,11 @@
       <c r="N118" s="4">
         <v>0</v>
       </c>
-      <c r="O118" s="3" t="s">
-        <v>182</v>
+      <c r="O118" s="3">
+        <v>2025</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7805,7 +7802,7 @@
         <v>40</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C119" s="4">
         <v>30314253</v>
@@ -7817,7 +7814,7 @@
         <v>16</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G119" s="4">
         <v>3</v>
@@ -7843,11 +7840,11 @@
       <c r="N119" s="4">
         <v>0</v>
       </c>
-      <c r="O119" s="3" t="s">
-        <v>182</v>
+      <c r="O119" s="3">
+        <v>2025</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7855,7 +7852,7 @@
         <v>41</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C120" s="4">
         <v>69949607</v>
@@ -7867,7 +7864,7 @@
         <v>16</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G120" s="4">
         <v>16</v>
@@ -7893,11 +7890,11 @@
       <c r="N120" s="4">
         <v>0</v>
       </c>
-      <c r="O120" s="3" t="s">
-        <v>182</v>
+      <c r="O120" s="3">
+        <v>2025</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7905,7 +7902,7 @@
         <v>42</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C121" s="4">
         <v>30313827</v>
@@ -7917,7 +7914,7 @@
         <v>16</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G121" s="4">
         <v>2</v>
@@ -7943,11 +7940,11 @@
       <c r="N121" s="4">
         <v>0</v>
       </c>
-      <c r="O121" s="3" t="s">
-        <v>182</v>
+      <c r="O121" s="3">
+        <v>2025</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7955,7 +7952,7 @@
         <v>43</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C122" s="4">
         <v>69760392</v>
@@ -7967,7 +7964,7 @@
         <v>16</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G122" s="4">
         <v>0</v>
@@ -7993,11 +7990,11 @@
       <c r="N122" s="4">
         <v>0</v>
       </c>
-      <c r="O122" s="3" t="s">
-        <v>182</v>
+      <c r="O122" s="3">
+        <v>2025</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -8005,7 +8002,7 @@
         <v>44</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C123" s="4">
         <v>69988931</v>
@@ -8017,7 +8014,7 @@
         <v>16</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G123" s="4">
         <v>0</v>
@@ -8043,11 +8040,11 @@
       <c r="N123" s="4">
         <v>0</v>
       </c>
-      <c r="O123" s="3" t="s">
-        <v>182</v>
+      <c r="O123" s="3">
+        <v>2025</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -8055,7 +8052,7 @@
         <v>45</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C124" s="4">
         <v>70040769</v>
@@ -8067,7 +8064,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G124" s="4">
         <v>0</v>
@@ -8093,11 +8090,11 @@
       <c r="N124" s="4">
         <v>0</v>
       </c>
-      <c r="O124" s="3" t="s">
-        <v>182</v>
+      <c r="O124" s="3">
+        <v>2025</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -8105,7 +8102,7 @@
         <v>46</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C125" s="4">
         <v>69967103</v>
@@ -8117,7 +8114,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G125" s="4">
         <v>4</v>
@@ -8143,11 +8140,11 @@
       <c r="N125" s="4">
         <v>0</v>
       </c>
-      <c r="O125" s="3" t="s">
-        <v>182</v>
+      <c r="O125" s="3">
+        <v>2025</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -8155,7 +8152,7 @@
         <v>47</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C126" s="4">
         <v>69760396</v>
@@ -8167,7 +8164,7 @@
         <v>16</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G126" s="4">
         <v>4</v>
@@ -8193,11 +8190,11 @@
       <c r="N126" s="4">
         <v>0</v>
       </c>
-      <c r="O126" s="3" t="s">
-        <v>182</v>
+      <c r="O126" s="3">
+        <v>2025</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8205,7 +8202,7 @@
         <v>48</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C127" s="4">
         <v>69760410</v>
@@ -8217,7 +8214,7 @@
         <v>16</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G127" s="4">
         <v>0</v>
@@ -8243,11 +8240,11 @@
       <c r="N127" s="4">
         <v>0</v>
       </c>
-      <c r="O127" s="3" t="s">
-        <v>182</v>
+      <c r="O127" s="3">
+        <v>2025</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8255,7 +8252,7 @@
         <v>49</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C128" s="4">
         <v>70011444</v>
@@ -8267,7 +8264,7 @@
         <v>16</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G128" s="4">
         <v>3</v>
@@ -8293,11 +8290,11 @@
       <c r="N128" s="4">
         <v>0</v>
       </c>
-      <c r="O128" s="3" t="s">
-        <v>182</v>
+      <c r="O128" s="3">
+        <v>2025</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8305,7 +8302,7 @@
         <v>50</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C129" s="4">
         <v>69988976</v>
@@ -8317,7 +8314,7 @@
         <v>16</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G129" s="4">
         <v>0</v>
@@ -8343,11 +8340,11 @@
       <c r="N129" s="4">
         <v>0</v>
       </c>
-      <c r="O129" s="3" t="s">
-        <v>182</v>
+      <c r="O129" s="3">
+        <v>2025</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8355,7 +8352,7 @@
         <v>51</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C130" s="4">
         <v>70040773</v>
@@ -8367,7 +8364,7 @@
         <v>16</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G130" s="4">
         <v>1</v>
@@ -8393,11 +8390,11 @@
       <c r="N130" s="4">
         <v>0</v>
       </c>
-      <c r="O130" s="3" t="s">
-        <v>182</v>
+      <c r="O130" s="3">
+        <v>2025</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8405,7 +8402,7 @@
         <v>52</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C131" s="4">
         <v>69760394</v>
@@ -8417,7 +8414,7 @@
         <v>16</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G131" s="4">
         <v>2</v>
@@ -8443,11 +8440,11 @@
       <c r="N131" s="4">
         <v>0</v>
       </c>
-      <c r="O131" s="3" t="s">
-        <v>182</v>
+      <c r="O131" s="3">
+        <v>2025</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8455,7 +8452,7 @@
         <v>53</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C132" s="4">
         <v>69760407</v>
@@ -8467,7 +8464,7 @@
         <v>16</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G132" s="4">
         <v>0</v>
@@ -8493,11 +8490,11 @@
       <c r="N132" s="4">
         <v>0</v>
       </c>
-      <c r="O132" s="3" t="s">
-        <v>182</v>
+      <c r="O132" s="3">
+        <v>2025</v>
       </c>
       <c r="P132" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8505,7 +8502,7 @@
         <v>54</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C133" s="4">
         <v>69760386</v>
@@ -8517,7 +8514,7 @@
         <v>16</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G133" s="4">
         <v>2</v>
@@ -8543,11 +8540,11 @@
       <c r="N133" s="4">
         <v>0</v>
       </c>
-      <c r="O133" s="3" t="s">
-        <v>182</v>
+      <c r="O133" s="3">
+        <v>2025</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8555,7 +8552,7 @@
         <v>55</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C134" s="4">
         <v>69992480</v>
@@ -8567,7 +8564,7 @@
         <v>16</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G134" s="4">
         <v>0</v>
@@ -8593,11 +8590,11 @@
       <c r="N134" s="4">
         <v>0</v>
       </c>
-      <c r="O134" s="3" t="s">
-        <v>182</v>
+      <c r="O134" s="3">
+        <v>2025</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8605,7 +8602,7 @@
         <v>56</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C135" s="4">
         <v>69760405</v>
@@ -8617,7 +8614,7 @@
         <v>16</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G135" s="4">
         <v>0</v>
@@ -8643,11 +8640,11 @@
       <c r="N135" s="4">
         <v>0</v>
       </c>
-      <c r="O135" s="3" t="s">
-        <v>182</v>
+      <c r="O135" s="3">
+        <v>2025</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8655,7 +8652,7 @@
         <v>57</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C136" s="4">
         <v>69760391</v>
@@ -8667,7 +8664,7 @@
         <v>16</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -8693,11 +8690,11 @@
       <c r="N136" s="4">
         <v>0</v>
       </c>
-      <c r="O136" s="3" t="s">
-        <v>182</v>
+      <c r="O136" s="3">
+        <v>2025</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8705,7 +8702,7 @@
         <v>58</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C137" s="4">
         <v>69760412</v>
@@ -8717,7 +8714,7 @@
         <v>16</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -8743,11 +8740,11 @@
       <c r="N137" s="4">
         <v>0</v>
       </c>
-      <c r="O137" s="3" t="s">
-        <v>182</v>
+      <c r="O137" s="3">
+        <v>2025</v>
       </c>
       <c r="P137" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8755,7 +8752,7 @@
         <v>59</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C138" s="4">
         <v>70008544</v>
@@ -8767,7 +8764,7 @@
         <v>16</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G138" s="4">
         <v>0</v>
@@ -8793,11 +8790,11 @@
       <c r="N138" s="4">
         <v>0</v>
       </c>
-      <c r="O138" s="3" t="s">
-        <v>182</v>
+      <c r="O138" s="3">
+        <v>2025</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8805,7 +8802,7 @@
         <v>60</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C139" s="4">
         <v>69760415</v>
@@ -8817,7 +8814,7 @@
         <v>16</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G139" s="4">
         <v>0</v>
@@ -8843,11 +8840,11 @@
       <c r="N139" s="4">
         <v>0</v>
       </c>
-      <c r="O139" s="3" t="s">
-        <v>182</v>
+      <c r="O139" s="3">
+        <v>2025</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8855,7 +8852,7 @@
         <v>61</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C140" s="4">
         <v>69760414</v>
@@ -8867,7 +8864,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G140" s="4">
         <v>2</v>
@@ -8893,11 +8890,11 @@
       <c r="N140" s="4">
         <v>0</v>
       </c>
-      <c r="O140" s="3" t="s">
-        <v>182</v>
+      <c r="O140" s="3">
+        <v>2025</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8905,7 +8902,7 @@
         <v>62</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C141" s="4">
         <v>69760423</v>
@@ -8917,7 +8914,7 @@
         <v>16</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G141" s="4">
         <v>2</v>
@@ -8943,11 +8940,11 @@
       <c r="N141" s="4">
         <v>0</v>
       </c>
-      <c r="O141" s="3" t="s">
-        <v>182</v>
+      <c r="O141" s="3">
+        <v>2025</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8955,7 +8952,7 @@
         <v>63</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C142" s="4">
         <v>69761709</v>
@@ -8967,7 +8964,7 @@
         <v>16</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G142" s="4">
         <v>0</v>
@@ -8993,11 +8990,11 @@
       <c r="N142" s="4">
         <v>0</v>
       </c>
-      <c r="O142" s="3" t="s">
-        <v>182</v>
+      <c r="O142" s="3">
+        <v>2025</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9005,7 +9002,7 @@
         <v>64</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C143" s="4">
         <v>69760422</v>
@@ -9017,7 +9014,7 @@
         <v>16</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G143" s="4">
         <v>0</v>
@@ -9043,11 +9040,11 @@
       <c r="N143" s="4">
         <v>0</v>
       </c>
-      <c r="O143" s="3" t="s">
-        <v>182</v>
+      <c r="O143" s="3">
+        <v>2025</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9055,7 +9052,7 @@
         <v>65</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C144" s="4">
         <v>69760400</v>
@@ -9067,7 +9064,7 @@
         <v>16</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G144" s="4">
         <v>0</v>
@@ -9093,11 +9090,11 @@
       <c r="N144" s="4">
         <v>0</v>
       </c>
-      <c r="O144" s="3" t="s">
-        <v>182</v>
+      <c r="O144" s="3">
+        <v>2025</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9105,7 +9102,7 @@
         <v>66</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C145" s="4">
         <v>69863517</v>
@@ -9117,7 +9114,7 @@
         <v>16</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G145" s="4">
         <v>1</v>
@@ -9143,11 +9140,11 @@
       <c r="N145" s="4">
         <v>0</v>
       </c>
-      <c r="O145" s="3" t="s">
-        <v>182</v>
+      <c r="O145" s="3">
+        <v>2025</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -9155,7 +9152,7 @@
         <v>67</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C146" s="4">
         <v>69760425</v>
@@ -9167,7 +9164,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
@@ -9193,11 +9190,11 @@
       <c r="N146" s="4">
         <v>0</v>
       </c>
-      <c r="O146" s="3" t="s">
-        <v>182</v>
+      <c r="O146" s="3">
+        <v>2025</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9205,7 +9202,7 @@
         <v>68</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C147" s="4">
         <v>69930580</v>
@@ -9217,7 +9214,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G147" s="4">
         <v>0</v>
@@ -9243,11 +9240,11 @@
       <c r="N147" s="4">
         <v>0</v>
       </c>
-      <c r="O147" s="3" t="s">
-        <v>182</v>
+      <c r="O147" s="3">
+        <v>2025</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9255,7 +9252,7 @@
         <v>69</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C148" s="4">
         <v>69760421</v>
@@ -9267,7 +9264,7 @@
         <v>16</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -9293,11 +9290,11 @@
       <c r="N148" s="4">
         <v>0</v>
       </c>
-      <c r="O148" s="3" t="s">
-        <v>182</v>
+      <c r="O148" s="3">
+        <v>2025</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9317,7 +9314,7 @@
         <v>16</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
@@ -9343,11 +9340,11 @@
       <c r="N149" s="4">
         <v>0</v>
       </c>
-      <c r="O149" s="3" t="s">
-        <v>182</v>
+      <c r="O149" s="3">
+        <v>2025</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9355,7 +9352,7 @@
         <v>71</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C150" s="4">
         <v>69760413</v>
@@ -9367,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G150" s="4">
         <v>2</v>
@@ -9393,11 +9390,11 @@
       <c r="N150" s="4">
         <v>0</v>
       </c>
-      <c r="O150" s="3" t="s">
-        <v>182</v>
+      <c r="O150" s="3">
+        <v>2025</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9405,7 +9402,7 @@
         <v>72</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C151" s="4">
         <v>69959261</v>
@@ -9417,7 +9414,7 @@
         <v>16</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G151" s="4">
         <v>2</v>
@@ -9443,11 +9440,11 @@
       <c r="N151" s="4">
         <v>0</v>
       </c>
-      <c r="O151" s="3" t="s">
-        <v>182</v>
+      <c r="O151" s="3">
+        <v>2025</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9455,19 +9452,19 @@
         <v>73</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C152" s="4">
         <v>69760540</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G152" s="4">
         <v>2</v>
@@ -9493,11 +9490,11 @@
       <c r="N152" s="4">
         <v>0</v>
       </c>
-      <c r="O152" s="3" t="s">
-        <v>182</v>
+      <c r="O152" s="3">
+        <v>2025</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9505,19 +9502,19 @@
         <v>74</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C153" s="4">
         <v>69760538</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G153" s="4">
         <v>0</v>
@@ -9543,11 +9540,11 @@
       <c r="N153" s="4">
         <v>0</v>
       </c>
-      <c r="O153" s="3" t="s">
-        <v>182</v>
+      <c r="O153" s="3">
+        <v>2025</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9555,19 +9552,19 @@
         <v>75</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C154" s="4">
         <v>69760531</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G154" s="4">
         <v>0</v>
@@ -9593,11 +9590,11 @@
       <c r="N154" s="4">
         <v>0</v>
       </c>
-      <c r="O154" s="3" t="s">
-        <v>182</v>
+      <c r="O154" s="3">
+        <v>2025</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9605,19 +9602,19 @@
         <v>76</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C155" s="4">
         <v>69760537</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G155" s="4">
         <v>2</v>
@@ -9643,11 +9640,11 @@
       <c r="N155" s="4">
         <v>0</v>
       </c>
-      <c r="O155" s="3" t="s">
-        <v>182</v>
+      <c r="O155" s="3">
+        <v>2025</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9655,19 +9652,19 @@
         <v>77</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C156" s="4">
         <v>69760533</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G156" s="4">
         <v>3</v>
@@ -9693,11 +9690,11 @@
       <c r="N156" s="4">
         <v>0</v>
       </c>
-      <c r="O156" s="3" t="s">
-        <v>182</v>
+      <c r="O156" s="3">
+        <v>2025</v>
       </c>
       <c r="P156" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9705,19 +9702,19 @@
         <v>78</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C157" s="4">
         <v>69992481</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G157" s="4">
         <v>0</v>
@@ -9743,11 +9740,11 @@
       <c r="N157" s="4">
         <v>0</v>
       </c>
-      <c r="O157" s="3" t="s">
-        <v>182</v>
+      <c r="O157" s="3">
+        <v>2025</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9755,19 +9752,19 @@
         <v>79</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C158" s="4">
         <v>69760536</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G158" s="4">
         <v>0</v>
@@ -9793,11 +9790,11 @@
       <c r="N158" s="4">
         <v>0</v>
       </c>
-      <c r="O158" s="3" t="s">
-        <v>182</v>
+      <c r="O158" s="3">
+        <v>2025</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9805,19 +9802,19 @@
         <v>80</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C159" s="4">
         <v>69760541</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G159" s="4">
         <v>0</v>
@@ -9843,11 +9840,11 @@
       <c r="N159" s="4">
         <v>0</v>
       </c>
-      <c r="O159" s="3" t="s">
-        <v>182</v>
+      <c r="O159" s="3">
+        <v>2025</v>
       </c>
       <c r="P159" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9855,7 +9852,7 @@
         <v>81</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C160" s="4">
         <v>30300419</v>
@@ -9867,7 +9864,7 @@
         <v>91</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G160" s="4">
         <v>16</v>
@@ -9893,11 +9890,11 @@
       <c r="N160" s="4">
         <v>1</v>
       </c>
-      <c r="O160" s="3" t="s">
-        <v>182</v>
+      <c r="O160" s="3">
+        <v>2025</v>
       </c>
       <c r="P160" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9905,7 +9902,7 @@
         <v>82</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C161" s="4">
         <v>30300420</v>
@@ -9917,7 +9914,7 @@
         <v>91</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G161" s="4">
         <v>5</v>
@@ -9943,11 +9940,11 @@
       <c r="N161" s="4">
         <v>1</v>
       </c>
-      <c r="O161" s="3" t="s">
-        <v>182</v>
+      <c r="O161" s="3">
+        <v>2025</v>
       </c>
       <c r="P161" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9955,7 +9952,7 @@
         <v>83</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C162" s="4">
         <v>30300421</v>
@@ -9967,7 +9964,7 @@
         <v>91</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G162" s="4">
         <v>3</v>
@@ -9993,11 +9990,11 @@
       <c r="N162" s="4">
         <v>1</v>
       </c>
-      <c r="O162" s="3" t="s">
-        <v>182</v>
+      <c r="O162" s="3">
+        <v>2025</v>
       </c>
       <c r="P162" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10005,7 +10002,7 @@
         <v>84</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C163" s="4">
         <v>30305349</v>
@@ -10017,7 +10014,7 @@
         <v>91</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G163" s="4">
         <v>15</v>
@@ -10043,11 +10040,11 @@
       <c r="N163" s="4">
         <v>2</v>
       </c>
-      <c r="O163" s="3" t="s">
-        <v>182</v>
+      <c r="O163" s="3">
+        <v>2025</v>
       </c>
       <c r="P163" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10055,7 +10052,7 @@
         <v>85</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C164" s="4">
         <v>30300368</v>
@@ -10067,7 +10064,7 @@
         <v>91</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G164" s="4">
         <v>6</v>
@@ -10093,11 +10090,11 @@
       <c r="N164" s="4">
         <v>1</v>
       </c>
-      <c r="O164" s="3" t="s">
-        <v>182</v>
+      <c r="O164" s="3">
+        <v>2025</v>
       </c>
       <c r="P164" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10105,7 +10102,7 @@
         <v>86</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C165" s="4">
         <v>30300511</v>
@@ -10117,7 +10114,7 @@
         <v>91</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G165" s="4">
         <v>8</v>
@@ -10143,11 +10140,11 @@
       <c r="N165" s="4">
         <v>0</v>
       </c>
-      <c r="O165" s="3" t="s">
-        <v>182</v>
+      <c r="O165" s="3">
+        <v>2025</v>
       </c>
       <c r="P165" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10155,7 +10152,7 @@
         <v>87</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C166" s="4">
         <v>30300512</v>
@@ -10167,7 +10164,7 @@
         <v>91</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G166" s="4">
         <v>4</v>
@@ -10193,11 +10190,11 @@
       <c r="N166" s="4">
         <v>1</v>
       </c>
-      <c r="O166" s="3" t="s">
-        <v>182</v>
+      <c r="O166" s="3">
+        <v>2025</v>
       </c>
       <c r="P166" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10205,7 +10202,7 @@
         <v>88</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C167" s="4">
         <v>30300515</v>
@@ -10217,7 +10214,7 @@
         <v>91</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G167" s="4">
         <v>5</v>
@@ -10243,11 +10240,11 @@
       <c r="N167" s="4">
         <v>1</v>
       </c>
-      <c r="O167" s="3" t="s">
-        <v>182</v>
+      <c r="O167" s="3">
+        <v>2025</v>
       </c>
       <c r="P167" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10255,7 +10252,7 @@
         <v>89</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C168" s="4">
         <v>30300516</v>
@@ -10267,7 +10264,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G168" s="4">
         <v>3</v>
@@ -10293,11 +10290,11 @@
       <c r="N168" s="4">
         <v>1</v>
       </c>
-      <c r="O168" s="3" t="s">
-        <v>182</v>
+      <c r="O168" s="3">
+        <v>2025</v>
       </c>
       <c r="P168" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10305,7 +10302,7 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C169" s="4">
         <v>30300517</v>
@@ -10317,7 +10314,7 @@
         <v>91</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G169" s="4">
         <v>1</v>
@@ -10343,11 +10340,11 @@
       <c r="N169" s="4">
         <v>0</v>
       </c>
-      <c r="O169" s="3" t="s">
-        <v>182</v>
+      <c r="O169" s="3">
+        <v>2025</v>
       </c>
       <c r="P169" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10355,7 +10352,7 @@
         <v>91</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C170" s="4">
         <v>30300544</v>
@@ -10367,7 +10364,7 @@
         <v>91</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G170" s="4">
         <v>5</v>
@@ -10393,11 +10390,11 @@
       <c r="N170" s="4">
         <v>1</v>
       </c>
-      <c r="O170" s="3" t="s">
-        <v>182</v>
+      <c r="O170" s="3">
+        <v>2025</v>
       </c>
       <c r="P170" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10405,7 +10402,7 @@
         <v>92</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C171" s="4">
         <v>30300547</v>
@@ -10417,7 +10414,7 @@
         <v>91</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G171" s="4">
         <v>5</v>
@@ -10443,11 +10440,11 @@
       <c r="N171" s="4">
         <v>1</v>
       </c>
-      <c r="O171" s="3" t="s">
-        <v>182</v>
+      <c r="O171" s="3">
+        <v>2025</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10455,7 +10452,7 @@
         <v>93</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C172" s="4">
         <v>30300546</v>
@@ -10467,7 +10464,7 @@
         <v>91</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G172" s="4">
         <v>7</v>
@@ -10493,11 +10490,11 @@
       <c r="N172" s="4">
         <v>1</v>
       </c>
-      <c r="O172" s="3" t="s">
-        <v>182</v>
+      <c r="O172" s="3">
+        <v>2025</v>
       </c>
       <c r="P172" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10505,7 +10502,7 @@
         <v>94</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C173" s="4">
         <v>30300545</v>
@@ -10517,7 +10514,7 @@
         <v>91</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G173" s="4">
         <v>3</v>
@@ -10543,11 +10540,11 @@
       <c r="N173" s="4">
         <v>1</v>
       </c>
-      <c r="O173" s="3" t="s">
-        <v>182</v>
+      <c r="O173" s="3">
+        <v>2025</v>
       </c>
       <c r="P173" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10555,7 +10552,7 @@
         <v>95</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C174" s="4">
         <v>30300537</v>
@@ -10567,7 +10564,7 @@
         <v>91</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G174" s="4">
         <v>2</v>
@@ -10593,11 +10590,11 @@
       <c r="N174" s="4">
         <v>1</v>
       </c>
-      <c r="O174" s="3" t="s">
-        <v>182</v>
+      <c r="O174" s="3">
+        <v>2025</v>
       </c>
       <c r="P174" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10605,7 +10602,7 @@
         <v>96</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C175" s="4">
         <v>30300478</v>
@@ -10617,7 +10614,7 @@
         <v>91</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G175" s="4">
         <v>2</v>
@@ -10643,11 +10640,11 @@
       <c r="N175" s="4">
         <v>0</v>
       </c>
-      <c r="O175" s="3" t="s">
-        <v>182</v>
+      <c r="O175" s="3">
+        <v>2025</v>
       </c>
       <c r="P175" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10655,7 +10652,7 @@
         <v>97</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C176" s="4">
         <v>30300187</v>
@@ -10667,7 +10664,7 @@
         <v>91</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G176" s="4">
         <v>11</v>
@@ -10693,11 +10690,11 @@
       <c r="N176" s="4">
         <v>1</v>
       </c>
-      <c r="O176" s="3" t="s">
-        <v>182</v>
+      <c r="O176" s="3">
+        <v>2025</v>
       </c>
       <c r="P176" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10705,7 +10702,7 @@
         <v>98</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C177" s="4">
         <v>30300188</v>
@@ -10717,7 +10714,7 @@
         <v>91</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G177" s="4">
         <v>3</v>
@@ -10743,11 +10740,11 @@
       <c r="N177" s="4">
         <v>1</v>
       </c>
-      <c r="O177" s="3" t="s">
-        <v>182</v>
+      <c r="O177" s="3">
+        <v>2025</v>
       </c>
       <c r="P177" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10755,7 +10752,7 @@
         <v>99</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C178" s="4">
         <v>30300189</v>
@@ -10767,7 +10764,7 @@
         <v>91</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G178" s="4">
         <v>3</v>
@@ -10793,11 +10790,11 @@
       <c r="N178" s="4">
         <v>1</v>
       </c>
-      <c r="O178" s="3" t="s">
-        <v>182</v>
+      <c r="O178" s="3">
+        <v>2025</v>
       </c>
       <c r="P178" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10805,7 +10802,7 @@
         <v>100</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C179" s="4">
         <v>30300178</v>
@@ -10817,7 +10814,7 @@
         <v>91</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G179" s="4">
         <v>4</v>
@@ -10843,11 +10840,11 @@
       <c r="N179" s="4">
         <v>1</v>
       </c>
-      <c r="O179" s="3" t="s">
-        <v>182</v>
+      <c r="O179" s="3">
+        <v>2025</v>
       </c>
       <c r="P179" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10855,7 +10852,7 @@
         <v>101</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C180" s="4">
         <v>30300513</v>
@@ -10867,7 +10864,7 @@
         <v>91</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G180" s="4">
         <v>7</v>
@@ -10893,11 +10890,11 @@
       <c r="N180" s="4">
         <v>0</v>
       </c>
-      <c r="O180" s="3" t="s">
-        <v>182</v>
+      <c r="O180" s="3">
+        <v>2025</v>
       </c>
       <c r="P180" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10905,7 +10902,7 @@
         <v>102</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C181" s="4">
         <v>30300202</v>
@@ -10917,7 +10914,7 @@
         <v>91</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G181" s="4">
         <v>5</v>
@@ -10943,11 +10940,11 @@
       <c r="N181" s="4">
         <v>1</v>
       </c>
-      <c r="O181" s="3" t="s">
-        <v>182</v>
+      <c r="O181" s="3">
+        <v>2025</v>
       </c>
       <c r="P181" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10955,7 +10952,7 @@
         <v>103</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C182" s="4">
         <v>30300141</v>
@@ -10967,7 +10964,7 @@
         <v>91</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G182" s="4">
         <v>4</v>
@@ -10993,11 +10990,11 @@
       <c r="N182" s="4">
         <v>1</v>
       </c>
-      <c r="O182" s="3" t="s">
-        <v>182</v>
+      <c r="O182" s="3">
+        <v>2025</v>
       </c>
       <c r="P182" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11005,7 +11002,7 @@
         <v>104</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C183" s="4">
         <v>30300276</v>
@@ -11017,7 +11014,7 @@
         <v>91</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G183" s="4">
         <v>9</v>
@@ -11043,11 +11040,11 @@
       <c r="N183" s="4">
         <v>1</v>
       </c>
-      <c r="O183" s="3" t="s">
-        <v>182</v>
+      <c r="O183" s="3">
+        <v>2025</v>
       </c>
       <c r="P183" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -11055,7 +11052,7 @@
         <v>105</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C184" s="4">
         <v>30300277</v>
@@ -11067,7 +11064,7 @@
         <v>91</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G184" s="4">
         <v>8</v>
@@ -11093,11 +11090,11 @@
       <c r="N184" s="4">
         <v>0</v>
       </c>
-      <c r="O184" s="3" t="s">
-        <v>182</v>
+      <c r="O184" s="3">
+        <v>2025</v>
       </c>
       <c r="P184" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -11105,7 +11102,7 @@
         <v>106</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C185" s="4">
         <v>30300318</v>
@@ -11117,7 +11114,7 @@
         <v>91</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G185" s="4">
         <v>4</v>
@@ -11143,11 +11140,11 @@
       <c r="N185" s="4">
         <v>1</v>
       </c>
-      <c r="O185" s="3" t="s">
-        <v>182</v>
+      <c r="O185" s="3">
+        <v>2025</v>
       </c>
       <c r="P185" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11155,7 +11152,7 @@
         <v>107</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C186" s="4">
         <v>30300319</v>
@@ -11167,7 +11164,7 @@
         <v>91</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G186" s="4">
         <v>4</v>
@@ -11193,11 +11190,11 @@
       <c r="N186" s="4">
         <v>1</v>
       </c>
-      <c r="O186" s="3" t="s">
-        <v>182</v>
+      <c r="O186" s="3">
+        <v>2025</v>
       </c>
       <c r="P186" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11205,7 +11202,7 @@
         <v>108</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C187" s="4">
         <v>30300309</v>
@@ -11217,7 +11214,7 @@
         <v>91</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G187" s="4">
         <v>6</v>
@@ -11243,11 +11240,11 @@
       <c r="N187" s="4">
         <v>1</v>
       </c>
-      <c r="O187" s="3" t="s">
-        <v>182</v>
+      <c r="O187" s="3">
+        <v>2025</v>
       </c>
       <c r="P187" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11255,7 +11252,7 @@
         <v>109</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C188" s="4">
         <v>30300310</v>
@@ -11267,7 +11264,7 @@
         <v>91</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G188" s="4">
         <v>5</v>
@@ -11293,11 +11290,11 @@
       <c r="N188" s="4">
         <v>0</v>
       </c>
-      <c r="O188" s="3" t="s">
-        <v>182</v>
+      <c r="O188" s="3">
+        <v>2025</v>
       </c>
       <c r="P188" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11305,7 +11302,7 @@
         <v>110</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C189" s="4">
         <v>30300348</v>
@@ -11317,7 +11314,7 @@
         <v>91</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G189" s="4">
         <v>5</v>
@@ -11343,11 +11340,11 @@
       <c r="N189" s="4">
         <v>1</v>
       </c>
-      <c r="O189" s="3" t="s">
-        <v>182</v>
+      <c r="O189" s="3">
+        <v>2025</v>
       </c>
       <c r="P189" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11355,7 +11352,7 @@
         <v>111</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C190" s="4">
         <v>30311937</v>
@@ -11367,7 +11364,7 @@
         <v>91</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G190" s="4">
         <v>8</v>
@@ -11393,11 +11390,11 @@
       <c r="N190" s="4">
         <v>1</v>
       </c>
-      <c r="O190" s="3" t="s">
-        <v>182</v>
+      <c r="O190" s="3">
+        <v>2025</v>
       </c>
       <c r="P190" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11405,7 +11402,7 @@
         <v>112</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C191" s="4">
         <v>69995715</v>
@@ -11417,7 +11414,7 @@
         <v>91</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G191" s="4">
         <v>3</v>
@@ -11443,11 +11440,11 @@
       <c r="N191" s="4">
         <v>1</v>
       </c>
-      <c r="O191" s="3" t="s">
-        <v>182</v>
+      <c r="O191" s="3">
+        <v>2025</v>
       </c>
       <c r="P191" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11455,7 +11452,7 @@
         <v>113</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C192" s="4">
         <v>70013633</v>
@@ -11467,7 +11464,7 @@
         <v>16</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G192" s="4">
         <v>4</v>
@@ -11493,11 +11490,11 @@
       <c r="N192" s="4">
         <v>0</v>
       </c>
-      <c r="O192" s="3" t="s">
-        <v>182</v>
+      <c r="O192" s="3">
+        <v>2025</v>
       </c>
       <c r="P192" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11505,7 +11502,7 @@
         <v>114</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C193" s="4">
         <v>30305347</v>
@@ -11517,7 +11514,7 @@
         <v>16</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G193" s="4">
         <v>2</v>
@@ -11543,11 +11540,11 @@
       <c r="N193" s="4">
         <v>0</v>
       </c>
-      <c r="O193" s="3" t="s">
-        <v>182</v>
+      <c r="O193" s="3">
+        <v>2025</v>
       </c>
       <c r="P193" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11555,7 +11552,7 @@
         <v>115</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C194" s="4">
         <v>69966351</v>
@@ -11567,7 +11564,7 @@
         <v>16</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G194" s="4">
         <v>4</v>
@@ -11593,11 +11590,11 @@
       <c r="N194" s="4">
         <v>1</v>
       </c>
-      <c r="O194" s="3" t="s">
-        <v>182</v>
+      <c r="O194" s="3">
+        <v>2025</v>
       </c>
       <c r="P194" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11605,7 +11602,7 @@
         <v>116</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C195" s="4">
         <v>30312213</v>
@@ -11617,7 +11614,7 @@
         <v>16</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G195" s="4">
         <v>6</v>
@@ -11643,11 +11640,11 @@
       <c r="N195" s="4">
         <v>1</v>
       </c>
-      <c r="O195" s="3" t="s">
-        <v>182</v>
+      <c r="O195" s="3">
+        <v>2025</v>
       </c>
       <c r="P195" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11655,7 +11652,7 @@
         <v>117</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C196" s="4">
         <v>69991028</v>
@@ -11667,7 +11664,7 @@
         <v>16</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G196" s="4">
         <v>17</v>
@@ -11693,11 +11690,11 @@
       <c r="N196" s="4">
         <v>0</v>
       </c>
-      <c r="O196" s="3" t="s">
-        <v>182</v>
+      <c r="O196" s="3">
+        <v>2025</v>
       </c>
       <c r="P196" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11705,7 +11702,7 @@
         <v>118</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C197" s="4">
         <v>69960766</v>
@@ -11717,7 +11714,7 @@
         <v>16</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G197" s="4">
         <v>2</v>
@@ -11743,11 +11740,11 @@
       <c r="N197" s="4">
         <v>1</v>
       </c>
-      <c r="O197" s="3" t="s">
-        <v>182</v>
+      <c r="O197" s="3">
+        <v>2025</v>
       </c>
       <c r="P197" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11755,7 +11752,7 @@
         <v>119</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C198" s="4">
         <v>69960482</v>
@@ -11767,7 +11764,7 @@
         <v>16</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G198" s="4">
         <v>5</v>
@@ -11793,11 +11790,11 @@
       <c r="N198" s="4">
         <v>1</v>
       </c>
-      <c r="O198" s="3" t="s">
-        <v>182</v>
+      <c r="O198" s="3">
+        <v>2025</v>
       </c>
       <c r="P198" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11805,7 +11802,7 @@
         <v>120</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C199" s="4">
         <v>30300225</v>
@@ -11817,7 +11814,7 @@
         <v>91</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G199" s="4">
         <v>17</v>
@@ -11843,11 +11840,11 @@
       <c r="N199" s="4">
         <v>1</v>
       </c>
-      <c r="O199" s="3" t="s">
-        <v>182</v>
+      <c r="O199" s="3">
+        <v>2025</v>
       </c>
       <c r="P199" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11855,7 +11852,7 @@
         <v>121</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C200" s="4">
         <v>30300261</v>
@@ -11867,7 +11864,7 @@
         <v>91</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G200" s="4">
         <v>14</v>
@@ -11893,11 +11890,11 @@
       <c r="N200" s="4">
         <v>1</v>
       </c>
-      <c r="O200" s="3" t="s">
-        <v>182</v>
+      <c r="O200" s="3">
+        <v>2025</v>
       </c>
       <c r="P200" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11905,7 +11902,7 @@
         <v>122</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C201" s="4">
         <v>30300251</v>
@@ -11917,7 +11914,7 @@
         <v>91</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G201" s="4">
         <v>8</v>
@@ -11943,11 +11940,11 @@
       <c r="N201" s="4">
         <v>2</v>
       </c>
-      <c r="O201" s="3" t="s">
-        <v>182</v>
+      <c r="O201" s="3">
+        <v>2025</v>
       </c>
       <c r="P201" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11955,7 +11952,7 @@
         <v>123</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C202" s="4">
         <v>30300253</v>
@@ -11967,7 +11964,7 @@
         <v>91</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G202" s="4">
         <v>5</v>
@@ -11993,11 +11990,11 @@
       <c r="N202" s="4">
         <v>1</v>
       </c>
-      <c r="O202" s="3" t="s">
-        <v>182</v>
+      <c r="O202" s="3">
+        <v>2025</v>
       </c>
       <c r="P202" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12005,7 +12002,7 @@
         <v>124</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C203" s="4">
         <v>30311552</v>
@@ -12017,7 +12014,7 @@
         <v>91</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G203" s="4">
         <v>8</v>
@@ -12043,11 +12040,11 @@
       <c r="N203" s="4">
         <v>1</v>
       </c>
-      <c r="O203" s="3" t="s">
-        <v>182</v>
+      <c r="O203" s="3">
+        <v>2025</v>
       </c>
       <c r="P203" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12055,7 +12052,7 @@
         <v>125</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C204" s="4">
         <v>69753240</v>
@@ -12067,7 +12064,7 @@
         <v>91</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G204" s="4">
         <v>30</v>
@@ -12093,11 +12090,11 @@
       <c r="N204" s="4">
         <v>1</v>
       </c>
-      <c r="O204" s="3" t="s">
-        <v>182</v>
+      <c r="O204" s="3">
+        <v>2025</v>
       </c>
       <c r="P204" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12105,7 +12102,7 @@
         <v>126</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C205" s="4">
         <v>30305352</v>
@@ -12117,7 +12114,7 @@
         <v>16</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G205" s="4">
         <v>11</v>
@@ -12143,11 +12140,11 @@
       <c r="N205" s="4">
         <v>2</v>
       </c>
-      <c r="O205" s="3" t="s">
-        <v>182</v>
+      <c r="O205" s="3">
+        <v>2025</v>
       </c>
       <c r="P205" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12155,7 +12152,7 @@
         <v>127</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C206" s="4">
         <v>30305353</v>
@@ -12167,7 +12164,7 @@
         <v>16</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G206" s="4">
         <v>7</v>
@@ -12193,11 +12190,11 @@
       <c r="N206" s="4">
         <v>1</v>
       </c>
-      <c r="O206" s="3" t="s">
-        <v>182</v>
+      <c r="O206" s="3">
+        <v>2025</v>
       </c>
       <c r="P206" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12205,7 +12202,7 @@
         <v>128</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C207" s="4">
         <v>30300254</v>
@@ -12217,7 +12214,7 @@
         <v>16</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G207" s="4">
         <v>1</v>
@@ -12243,11 +12240,11 @@
       <c r="N207" s="4">
         <v>1</v>
       </c>
-      <c r="O207" s="3" t="s">
-        <v>182</v>
+      <c r="O207" s="3">
+        <v>2025</v>
       </c>
       <c r="P207" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12255,7 +12252,7 @@
         <v>129</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C208" s="4">
         <v>70039789</v>
@@ -12267,7 +12264,7 @@
         <v>16</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G208" s="4">
         <v>10</v>
@@ -12293,11 +12290,11 @@
       <c r="N208" s="4">
         <v>0</v>
       </c>
-      <c r="O208" s="3" t="s">
-        <v>182</v>
+      <c r="O208" s="3">
+        <v>2025</v>
       </c>
       <c r="P208" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12305,7 +12302,7 @@
         <v>130</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C209" s="4">
         <v>30311564</v>
@@ -12317,7 +12314,7 @@
         <v>16</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G209" s="4">
         <v>4</v>
@@ -12343,11 +12340,11 @@
       <c r="N209" s="4">
         <v>1</v>
       </c>
-      <c r="O209" s="3" t="s">
-        <v>182</v>
+      <c r="O209" s="3">
+        <v>2025</v>
       </c>
       <c r="P209" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12355,7 +12352,7 @@
         <v>131</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C210" s="4">
         <v>70031757</v>
@@ -12367,7 +12364,7 @@
         <v>16</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G210" s="4">
         <v>1</v>
@@ -12393,11 +12390,11 @@
       <c r="N210" s="4">
         <v>0</v>
       </c>
-      <c r="O210" s="3" t="s">
-        <v>182</v>
+      <c r="O210" s="3">
+        <v>2025</v>
       </c>
       <c r="P210" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12405,7 +12402,7 @@
         <v>132</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C211" s="4">
         <v>30300239</v>
@@ -12417,7 +12414,7 @@
         <v>91</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G211" s="4">
         <v>15</v>
@@ -12443,11 +12440,11 @@
       <c r="N211" s="4">
         <v>3</v>
       </c>
-      <c r="O211" s="3" t="s">
-        <v>182</v>
+      <c r="O211" s="3">
+        <v>2025</v>
       </c>
       <c r="P211" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12455,7 +12452,7 @@
         <v>133</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C212" s="4">
         <v>30312528</v>
@@ -12467,7 +12464,7 @@
         <v>91</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G212" s="4">
         <v>22</v>
@@ -12493,11 +12490,11 @@
       <c r="N212" s="4">
         <v>1</v>
       </c>
-      <c r="O212" s="3" t="s">
-        <v>182</v>
+      <c r="O212" s="3">
+        <v>2025</v>
       </c>
       <c r="P212" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12505,7 +12502,7 @@
         <v>134</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C213" s="4">
         <v>69830118</v>
@@ -12517,7 +12514,7 @@
         <v>16</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G213" s="4">
         <v>14</v>
@@ -12543,11 +12540,11 @@
       <c r="N213" s="4">
         <v>0</v>
       </c>
-      <c r="O213" s="3" t="s">
-        <v>182</v>
+      <c r="O213" s="3">
+        <v>2025</v>
       </c>
       <c r="P213" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12555,7 +12552,7 @@
         <v>135</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C214" s="4">
         <v>69982208</v>
@@ -12567,7 +12564,7 @@
         <v>16</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G214" s="4">
         <v>3</v>
@@ -12593,11 +12590,11 @@
       <c r="N214" s="4">
         <v>1</v>
       </c>
-      <c r="O214" s="3" t="s">
-        <v>182</v>
+      <c r="O214" s="3">
+        <v>2025</v>
       </c>
       <c r="P214" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12605,7 +12602,7 @@
         <v>136</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C215" s="4">
         <v>30300312</v>
@@ -12617,7 +12614,7 @@
         <v>16</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G215" s="4">
         <v>4</v>
@@ -12643,11 +12640,11 @@
       <c r="N215" s="4">
         <v>1</v>
       </c>
-      <c r="O215" s="3" t="s">
-        <v>182</v>
+      <c r="O215" s="3">
+        <v>2025</v>
       </c>
       <c r="P215" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12655,7 +12652,7 @@
         <v>137</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C216" s="4">
         <v>69758487</v>
@@ -12667,7 +12664,7 @@
         <v>16</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G216" s="4">
         <v>6</v>
@@ -12693,11 +12690,11 @@
       <c r="N216" s="4">
         <v>1</v>
       </c>
-      <c r="O216" s="3" t="s">
-        <v>182</v>
+      <c r="O216" s="3">
+        <v>2025</v>
       </c>
       <c r="P216" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12705,7 +12702,7 @@
         <v>138</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C217" s="4">
         <v>30300219</v>
@@ -12717,7 +12714,7 @@
         <v>16</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G217" s="4">
         <v>3</v>
@@ -12743,11 +12740,11 @@
       <c r="N217" s="4">
         <v>1</v>
       </c>
-      <c r="O217" s="3" t="s">
-        <v>182</v>
+      <c r="O217" s="3">
+        <v>2025</v>
       </c>
       <c r="P217" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12755,19 +12752,19 @@
         <v>139</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C218" s="4">
         <v>30300245</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G218" s="4">
         <v>25</v>
@@ -12793,11 +12790,11 @@
       <c r="N218" s="4">
         <v>1</v>
       </c>
-      <c r="O218" s="3" t="s">
-        <v>182</v>
+      <c r="O218" s="3">
+        <v>2025</v>
       </c>
       <c r="P218" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12805,19 +12802,19 @@
         <v>140</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C219" s="4">
         <v>69895793</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G219" s="4">
         <v>7</v>
@@ -12843,11 +12840,11 @@
       <c r="N219" s="4">
         <v>1</v>
       </c>
-      <c r="O219" s="3" t="s">
-        <v>182</v>
+      <c r="O219" s="3">
+        <v>2025</v>
       </c>
       <c r="P219" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12855,19 +12852,19 @@
         <v>141</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C220" s="4">
         <v>30300243</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G220" s="4">
         <v>7</v>
@@ -12893,11 +12890,11 @@
       <c r="N220" s="4">
         <v>1</v>
       </c>
-      <c r="O220" s="3" t="s">
-        <v>182</v>
+      <c r="O220" s="3">
+        <v>2025</v>
       </c>
       <c r="P220" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12905,10 +12902,10 @@
         <v>142</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>175</v>
@@ -12917,7 +12914,7 @@
         <v>16</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G221" s="4">
         <v>3</v>
@@ -12943,11 +12940,11 @@
       <c r="N221" s="4">
         <v>0</v>
       </c>
-      <c r="O221" s="3" t="s">
-        <v>182</v>
+      <c r="O221" s="3">
+        <v>2025</v>
       </c>
       <c r="P221" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12955,10 +12952,10 @@
         <v>143</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>175</v>
@@ -12967,7 +12964,7 @@
         <v>16</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G222" s="4">
         <v>1</v>
@@ -12993,11 +12990,11 @@
       <c r="N222" s="4">
         <v>1</v>
       </c>
-      <c r="O222" s="3" t="s">
-        <v>182</v>
+      <c r="O222" s="3">
+        <v>2025</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -13005,10 +13002,10 @@
         <v>144</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>175</v>
@@ -13017,7 +13014,7 @@
         <v>16</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G223" s="4">
         <v>18</v>
@@ -13043,11 +13040,11 @@
       <c r="N223" s="4">
         <v>0</v>
       </c>
-      <c r="O223" s="3" t="s">
-        <v>182</v>
+      <c r="O223" s="3">
+        <v>2025</v>
       </c>
       <c r="P223" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -13055,10 +13052,10 @@
         <v>145</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>175</v>
@@ -13067,7 +13064,7 @@
         <v>16</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G224" s="4">
         <v>22</v>
@@ -13093,11 +13090,11 @@
       <c r="N224" s="4">
         <v>0</v>
       </c>
-      <c r="O224" s="3" t="s">
-        <v>182</v>
+      <c r="O224" s="3">
+        <v>2025</v>
       </c>
       <c r="P224" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -13105,10 +13102,10 @@
         <v>146</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>175</v>
@@ -13117,7 +13114,7 @@
         <v>16</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G225" s="4">
         <v>0</v>
@@ -13143,11 +13140,11 @@
       <c r="N225" s="4">
         <v>0</v>
       </c>
-      <c r="O225" s="3" t="s">
-        <v>182</v>
+      <c r="O225" s="3">
+        <v>2025</v>
       </c>
       <c r="P225" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13155,10 +13152,10 @@
         <v>147</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>175</v>
@@ -13167,7 +13164,7 @@
         <v>16</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G226" s="4">
         <v>1</v>
@@ -13193,11 +13190,11 @@
       <c r="N226" s="4">
         <v>0</v>
       </c>
-      <c r="O226" s="3" t="s">
-        <v>182</v>
+      <c r="O226" s="3">
+        <v>2025</v>
       </c>
       <c r="P226" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13205,10 +13202,10 @@
         <v>148</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>175</v>
@@ -13217,7 +13214,7 @@
         <v>16</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G227" s="4">
         <v>26</v>
@@ -13243,11 +13240,11 @@
       <c r="N227" s="4">
         <v>0</v>
       </c>
-      <c r="O227" s="3" t="s">
-        <v>182</v>
+      <c r="O227" s="3">
+        <v>2025</v>
       </c>
       <c r="P227" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13255,19 +13252,19 @@
         <v>149</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C228" s="4">
         <v>30300311</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G228" s="4">
         <v>16</v>
@@ -13293,11 +13290,11 @@
       <c r="N228" s="4">
         <v>1</v>
       </c>
-      <c r="O228" s="3" t="s">
-        <v>182</v>
+      <c r="O228" s="3">
+        <v>2025</v>
       </c>
       <c r="P228" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13305,19 +13302,19 @@
         <v>150</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C229" s="4">
         <v>30314336</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G229" s="4">
         <v>3</v>
@@ -13343,11 +13340,11 @@
       <c r="N229" s="4">
         <v>1</v>
       </c>
-      <c r="O229" s="3" t="s">
-        <v>182</v>
+      <c r="O229" s="3">
+        <v>2025</v>
       </c>
       <c r="P229" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13355,19 +13352,19 @@
         <v>151</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C230" s="4">
         <v>30300386</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G230" s="4">
         <v>7</v>
@@ -13393,11 +13390,11 @@
       <c r="N230" s="4">
         <v>1</v>
       </c>
-      <c r="O230" s="3" t="s">
-        <v>182</v>
+      <c r="O230" s="3">
+        <v>2025</v>
       </c>
       <c r="P230" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13405,19 +13402,19 @@
         <v>152</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G231" s="4">
         <v>9</v>
@@ -13443,11 +13440,11 @@
       <c r="N231" s="4">
         <v>0</v>
       </c>
-      <c r="O231" s="3" t="s">
-        <v>182</v>
+      <c r="O231" s="3">
+        <v>2025</v>
       </c>
       <c r="P231" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
